--- a/posesiones/1381310.xlsx
+++ b/posesiones/1381310.xlsx
@@ -1865,10 +1865,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2156,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <v>25</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2256,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R11">
         <v>25</v>
@@ -2309,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R12">
         <v>25</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2553,7 +2553,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R17">
         <v>20</v>
@@ -2606,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R18">
         <v>7</v>
@@ -2656,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2706,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R20">
         <v>22</v>
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2806,7 +2806,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R22">
         <v>21</v>
@@ -2859,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2909,7 +2909,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R24">
         <v>13</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3012,7 +3012,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R26">
         <v>15</v>
@@ -3065,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3115,7 +3115,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R28">
         <v>17</v>
@@ -3168,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3218,7 +3218,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R30">
         <v>10</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3368,7 +3368,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R33">
         <v>29</v>
@@ -3421,7 +3421,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R34">
         <v>10</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3524,7 +3524,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R36">
         <v>21</v>
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3624,7 +3624,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R38">
         <v>5</v>
@@ -3677,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3727,7 +3727,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R40">
         <v>18</v>
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3830,7 +3830,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R42">
         <v>6</v>
@@ -3883,7 +3883,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R43">
         <v>18</v>
@@ -3936,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3986,7 +3986,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R45">
         <v>10</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4083,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4230,7 +4230,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R50">
         <v>22</v>
@@ -4280,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4327,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4424,7 +4424,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R54">
         <v>18</v>
@@ -4477,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4524,7 +4524,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4577,7 +4577,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R57">
         <v>15</v>
@@ -4627,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4674,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4721,7 +4721,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4768,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4818,7 +4818,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R62">
         <v>14</v>
@@ -4868,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4915,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4965,7 +4965,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R65">
         <v>19</v>
@@ -5015,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5062,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5109,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5203,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5253,7 +5253,7 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R71">
         <v>21</v>
@@ -5300,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5350,7 +5350,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R73">
         <v>9</v>
@@ -5400,7 +5400,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5450,7 +5450,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R75">
         <v>4</v>
@@ -5503,7 +5503,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R76">
         <v>21</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5603,7 +5603,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5650,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5700,7 +5700,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R80">
         <v>22</v>
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5803,7 +5803,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R82">
         <v>9</v>
@@ -5853,7 +5853,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5903,7 +5903,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R84">
         <v>23</v>
@@ -5956,7 +5956,7 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R85">
         <v>25</v>
@@ -6009,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6059,7 +6059,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R87">
         <v>15</v>
@@ -6112,7 +6112,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6162,7 +6162,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R89">
         <v>8</v>
@@ -6215,7 +6215,7 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R90">
         <v>18</v>
@@ -6265,7 +6265,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6315,7 +6315,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R92">
         <v>16</v>
@@ -6371,7 +6371,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R93">
         <v>0</v>
@@ -6415,10 +6415,10 @@
         <v>1</v>
       </c>
       <c r="P94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q94">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6465,7 +6465,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6512,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6606,7 +6606,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6647,10 +6647,10 @@
         <v>1</v>
       </c>
       <c r="P99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6747,7 +6747,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6797,7 +6797,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R102">
         <v>7</v>
@@ -6847,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6894,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6944,7 +6944,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7041,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7088,7 +7088,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7135,7 +7135,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7182,7 +7182,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7229,7 +7229,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7276,7 +7276,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7326,7 +7326,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R113">
         <v>30</v>
@@ -7379,7 +7379,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7429,7 +7429,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R115">
         <v>24</v>
@@ -7482,7 +7482,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7532,7 +7532,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R117">
         <v>15</v>
@@ -7585,7 +7585,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7635,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R119">
         <v>24</v>
@@ -7685,7 +7685,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7735,7 +7735,7 @@
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R121">
         <v>7</v>
@@ -7785,7 +7785,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7832,7 +7832,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7879,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7926,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7973,7 +7973,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8023,7 +8023,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R127">
         <v>38</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8123,7 +8123,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R129">
         <v>22</v>
@@ -8173,7 +8173,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8217,7 +8217,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8267,7 +8267,7 @@
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R132">
         <v>19</v>
@@ -8320,7 +8320,7 @@
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R133">
         <v>15</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8423,7 +8423,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R135">
         <v>23</v>
@@ -8473,7 +8473,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8523,7 +8523,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8570,7 +8570,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8617,7 +8617,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8664,7 +8664,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8714,7 +8714,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R141">
         <v>4</v>
@@ -8767,7 +8767,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R142">
         <v>13</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8864,7 +8864,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8914,7 +8914,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R145">
         <v>30</v>
@@ -8967,7 +8967,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9061,7 +9061,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9108,7 +9108,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9155,7 +9155,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9202,7 +9202,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9252,7 +9252,7 @@
         <v>1</v>
       </c>
       <c r="Q152">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R152">
         <v>0</v>
@@ -9299,7 +9299,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9349,7 +9349,7 @@
         <v>1</v>
       </c>
       <c r="Q154">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R154">
         <v>0</v>
@@ -9396,7 +9396,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9443,7 +9443,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9490,7 +9490,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9540,7 +9540,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R158">
         <v>36</v>
@@ -9590,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9781,7 +9781,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9828,7 +9828,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9922,7 +9922,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9972,7 +9972,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R167">
         <v>27</v>
@@ -10025,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10072,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10122,7 +10122,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10169,7 +10169,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10216,7 +10216,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10263,7 +10263,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10310,7 +10310,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10360,7 +10360,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R175">
         <v>23</v>
@@ -10413,7 +10413,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10460,7 +10460,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10507,7 +10507,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10554,7 +10554,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10651,7 +10651,7 @@
         <v>1</v>
       </c>
       <c r="Q181">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R181">
         <v>23</v>
@@ -10701,7 +10701,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10751,7 +10751,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R183">
         <v>14</v>
@@ -10804,7 +10804,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10854,7 +10854,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R185">
         <v>26</v>
@@ -10907,7 +10907,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10954,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11004,7 +11004,7 @@
         <v>1</v>
       </c>
       <c r="Q188">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R188">
         <v>23</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11104,7 +11104,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11204,7 +11204,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R192">
         <v>22</v>
@@ -11254,7 +11254,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11301,7 +11301,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11351,7 +11351,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11401,7 +11401,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11451,7 +11451,7 @@
         <v>1</v>
       </c>
       <c r="Q197">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R197">
         <v>29</v>
@@ -11501,7 +11501,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11548,7 +11548,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11598,7 +11598,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R200">
         <v>18</v>
@@ -11648,7 +11648,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11698,7 +11698,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R202">
         <v>23</v>
@@ -11748,7 +11748,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11798,7 +11798,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R204">
         <v>25</v>
@@ -11848,7 +11848,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11892,7 +11892,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11939,7 +11939,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11986,7 +11986,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12033,7 +12033,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12080,7 +12080,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12127,7 +12127,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12174,7 +12174,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12224,7 +12224,7 @@
         <v>1</v>
       </c>
       <c r="Q213">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R213">
         <v>17</v>
@@ -12277,7 +12277,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12327,7 +12327,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R215">
         <v>21</v>
@@ -12371,10 +12371,10 @@
         <v>1</v>
       </c>
       <c r="P216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q216">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12421,7 +12421,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12468,7 +12468,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12515,7 +12515,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12562,7 +12562,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12609,7 +12609,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12656,7 +12656,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12703,7 +12703,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12750,7 +12750,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12791,10 +12791,10 @@
         <v>1</v>
       </c>
       <c r="P225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q225">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12844,7 +12844,7 @@
         <v>1</v>
       </c>
       <c r="Q226">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R226">
         <v>19</v>
@@ -12894,7 +12894,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12944,7 +12944,7 @@
         <v>1</v>
       </c>
       <c r="Q228">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R228">
         <v>15</v>
@@ -12994,7 +12994,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13044,7 +13044,7 @@
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R230">
         <v>29</v>
@@ -13097,7 +13097,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13147,7 +13147,7 @@
         <v>1</v>
       </c>
       <c r="Q232">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="R232">
         <v>17</v>
@@ -13197,7 +13197,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13244,7 +13244,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13291,7 +13291,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13338,7 +13338,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13388,7 +13388,7 @@
         <v>1</v>
       </c>
       <c r="Q237">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="R237">
         <v>31</v>
@@ -13441,7 +13441,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13488,7 +13488,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13535,7 +13535,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13585,7 +13585,7 @@
         <v>1</v>
       </c>
       <c r="Q241">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="R241">
         <v>20</v>
@@ -13638,7 +13638,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R242">
         <v>24</v>
@@ -13691,7 +13691,7 @@
         <v>1</v>
       </c>
       <c r="Q243">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R243">
         <v>9</v>
@@ -13741,7 +13741,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13791,7 +13791,7 @@
         <v>1</v>
       </c>
       <c r="Q245">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R245">
         <v>21</v>
@@ -13841,7 +13841,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13888,7 +13888,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13935,7 +13935,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13985,7 +13985,7 @@
         <v>1</v>
       </c>
       <c r="Q249">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R249">
         <v>18</v>
@@ -14038,7 +14038,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R250">
         <v>12</v>
@@ -14091,7 +14091,7 @@
         <v>1</v>
       </c>
       <c r="Q251">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R251">
         <v>13</v>
@@ -14141,7 +14141,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14188,7 +14188,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14235,7 +14235,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14282,7 +14282,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14329,7 +14329,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14376,7 +14376,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14426,7 +14426,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R258">
         <v>5</v>
@@ -14476,7 +14476,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14523,7 +14523,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14570,7 +14570,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14617,7 +14617,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14664,7 +14664,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14714,7 +14714,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R264">
         <v>28</v>
@@ -14767,7 +14767,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R265">
         <v>12</v>
@@ -14817,7 +14817,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14867,7 +14867,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R267">
         <v>22</v>
@@ -14920,7 +14920,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14970,7 +14970,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R269">
         <v>13</v>
@@ -15020,7 +15020,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15064,7 +15064,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15111,7 +15111,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15158,7 +15158,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15208,7 +15208,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R274">
         <v>13</v>
@@ -15258,7 +15258,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15308,7 +15308,7 @@
         <v>1</v>
       </c>
       <c r="Q276">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R276">
         <v>24</v>
@@ -15358,7 +15358,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15405,7 +15405,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15455,7 +15455,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15502,7 +15502,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15552,7 +15552,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15602,7 +15602,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R282">
         <v>23</v>
@@ -15655,7 +15655,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R283">
         <v>20</v>
@@ -15705,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15755,7 +15755,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R285">
         <v>13</v>
@@ -15808,7 +15808,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15858,7 +15858,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R287">
         <v>9</v>
@@ -15908,7 +15908,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15955,7 +15955,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16002,7 +16002,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16052,7 +16052,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R291">
         <v>21</v>
@@ -16105,7 +16105,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16155,7 +16155,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R293">
         <v>12</v>
@@ -16205,7 +16205,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16255,7 +16255,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16305,7 +16305,7 @@
         <v>1</v>
       </c>
       <c r="Q296">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R296">
         <v>8</v>
@@ -16355,7 +16355,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16402,7 +16402,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16449,7 +16449,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16496,7 +16496,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16543,7 +16543,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16593,7 +16593,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R302">
         <v>1</v>
@@ -16643,7 +16643,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16690,7 +16690,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16737,7 +16737,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16784,7 +16784,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16834,7 +16834,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R307">
         <v>29</v>
@@ -16887,7 +16887,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R308">
         <v>15</v>
@@ -16940,7 +16940,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16990,7 +16990,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R310">
         <v>6</v>
@@ -17040,7 +17040,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17087,7 +17087,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17134,7 +17134,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17184,7 +17184,7 @@
         <v>1</v>
       </c>
       <c r="Q314">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R314">
         <v>8</v>
@@ -17237,7 +17237,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R315">
         <v>2</v>
@@ -17287,7 +17287,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17337,7 +17337,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R317">
         <v>11</v>
@@ -17390,7 +17390,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17440,7 +17440,7 @@
         <v>1</v>
       </c>
       <c r="Q319">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R319">
         <v>11</v>
@@ -17490,7 +17490,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17537,7 +17537,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17584,7 +17584,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17631,7 +17631,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17681,7 +17681,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R324">
         <v>35</v>
@@ -17731,7 +17731,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17781,7 +17781,7 @@
         <v>1</v>
       </c>
       <c r="Q326">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R326">
         <v>0</v>
@@ -17834,7 +17834,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R327">
         <v>19</v>
@@ -17887,7 +17887,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17937,7 +17937,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R329">
         <v>4</v>
@@ -17987,7 +17987,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18037,7 +18037,7 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R331">
         <v>0</v>
@@ -18087,7 +18087,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18134,7 +18134,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18181,7 +18181,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18228,7 +18228,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18275,7 +18275,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18322,7 +18322,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18369,7 +18369,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18416,7 +18416,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18463,7 +18463,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18513,7 +18513,7 @@
         <v>1</v>
       </c>
       <c r="Q341">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R341">
         <v>4</v>
@@ -18566,7 +18566,7 @@
         <v>1</v>
       </c>
       <c r="Q342">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R342">
         <v>1</v>
@@ -18622,7 +18622,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R343">
         <v>2</v>
@@ -18666,10 +18666,10 @@
         <v>1</v>
       </c>
       <c r="P344" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q344">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18716,7 +18716,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18763,7 +18763,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18804,10 +18804,10 @@
         <v>1</v>
       </c>
       <c r="P347" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q347">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18857,7 +18857,7 @@
         <v>1</v>
       </c>
       <c r="Q348">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="R348">
         <v>16</v>
@@ -18907,7 +18907,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18957,7 +18957,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19007,7 +19007,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="R351">
         <v>26</v>
@@ -19057,7 +19057,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19107,7 +19107,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19154,7 +19154,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19201,7 +19201,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19248,7 +19248,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19295,7 +19295,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19345,7 +19345,7 @@
         <v>1</v>
       </c>
       <c r="Q358">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="R358">
         <v>29</v>
@@ -19398,7 +19398,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19445,7 +19445,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19492,7 +19492,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19539,7 +19539,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19589,7 +19589,7 @@
         <v>1</v>
       </c>
       <c r="Q363">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="R363">
         <v>25</v>
@@ -19639,7 +19639,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19686,7 +19686,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19736,7 +19736,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R366">
         <v>20</v>
@@ -19786,7 +19786,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19836,7 +19836,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R368">
         <v>13</v>
@@ -19886,7 +19886,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19936,7 +19936,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R370">
         <v>13</v>
@@ -19986,7 +19986,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20033,7 +20033,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20080,7 +20080,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20127,7 +20127,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20174,7 +20174,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20221,7 +20221,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20268,7 +20268,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20318,7 +20318,7 @@
         <v>1</v>
       </c>
       <c r="Q378">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R378">
         <v>0</v>
@@ -20371,7 +20371,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R379">
         <v>13</v>
@@ -20421,7 +20421,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20471,7 +20471,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R381">
         <v>21</v>
@@ -20521,7 +20521,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20568,7 +20568,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20615,7 +20615,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20662,7 +20662,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20712,7 +20712,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R386">
         <v>20</v>
@@ -20765,7 +20765,7 @@
         <v>1</v>
       </c>
       <c r="Q387">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R387">
         <v>7</v>
@@ -20818,7 +20818,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20868,7 +20868,7 @@
         <v>1</v>
       </c>
       <c r="Q389">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R389">
         <v>11</v>
@@ -20921,7 +20921,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20971,7 +20971,7 @@
         <v>1</v>
       </c>
       <c r="Q391">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R391">
         <v>3</v>
@@ -21021,7 +21021,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21068,7 +21068,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21115,7 +21115,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21162,7 +21162,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21209,7 +21209,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21259,7 +21259,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R397">
         <v>5</v>
@@ -21312,7 +21312,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21362,7 +21362,7 @@
         <v>1</v>
       </c>
       <c r="Q399">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R399">
         <v>11</v>
@@ -21412,7 +21412,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21462,7 +21462,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R401">
         <v>17</v>
@@ -21512,7 +21512,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21559,7 +21559,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21606,7 +21606,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21656,7 +21656,7 @@
         <v>1</v>
       </c>
       <c r="Q405">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R405">
         <v>25</v>
@@ -21706,7 +21706,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21753,7 +21753,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21803,7 +21803,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21853,7 +21853,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R409">
         <v>22</v>
@@ -21903,7 +21903,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21953,7 +21953,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R411">
         <v>19</v>
@@ -22006,7 +22006,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22056,7 +22056,7 @@
         <v>1</v>
       </c>
       <c r="Q413">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R413">
         <v>21</v>
@@ -22106,7 +22106,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22150,7 +22150,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22200,7 +22200,7 @@
         <v>1</v>
       </c>
       <c r="Q416">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R416">
         <v>21</v>
@@ -22250,7 +22250,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22297,7 +22297,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22347,7 +22347,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22394,7 +22394,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22441,7 +22441,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22491,7 +22491,7 @@
         <v>1</v>
       </c>
       <c r="Q422">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R422">
         <v>24</v>
@@ -22541,7 +22541,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22588,7 +22588,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22635,7 +22635,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22682,7 +22682,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22732,7 +22732,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R427">
         <v>4</v>
@@ -22782,7 +22782,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22832,7 +22832,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22882,7 +22882,7 @@
         <v>1</v>
       </c>
       <c r="Q430">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R430">
         <v>18</v>
@@ -22935,7 +22935,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22982,7 +22982,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23032,7 +23032,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23082,7 +23082,7 @@
         <v>1</v>
       </c>
       <c r="Q434">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R434">
         <v>22</v>
@@ -23135,7 +23135,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23185,7 +23185,7 @@
         <v>1</v>
       </c>
       <c r="Q436">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R436">
         <v>8</v>
@@ -23238,7 +23238,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23285,7 +23285,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23332,7 +23332,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23432,7 +23432,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23529,7 +23529,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R443">
         <v>27</v>
@@ -23582,7 +23582,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23629,7 +23629,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23676,7 +23676,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23720,7 +23720,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23767,7 +23767,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23814,7 +23814,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23864,7 +23864,7 @@
         <v>1</v>
       </c>
       <c r="Q450">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R450">
         <v>0</v>
@@ -23914,7 +23914,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23961,7 +23961,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24008,7 +24008,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24061,7 +24061,7 @@
         <v>1</v>
       </c>
       <c r="Q454">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R454">
         <v>25</v>
@@ -24111,7 +24111,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24158,7 +24158,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24205,7 +24205,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24255,7 +24255,7 @@
         <v>1</v>
       </c>
       <c r="Q458">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R458">
         <v>16</v>
@@ -24305,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24355,7 +24355,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24405,7 +24405,7 @@
         <v>1</v>
       </c>
       <c r="Q461">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R461">
         <v>22</v>
@@ -24452,7 +24452,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24546,7 +24546,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24593,7 +24593,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24643,7 +24643,7 @@
         <v>1</v>
       </c>
       <c r="Q466">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R466">
         <v>1</v>
@@ -24693,7 +24693,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24740,7 +24740,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24787,7 +24787,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24837,7 +24837,7 @@
         <v>1</v>
       </c>
       <c r="Q470">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R470">
         <v>11</v>
@@ -24890,7 +24890,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R471">
         <v>8</v>
@@ -24940,7 +24940,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -24987,7 +24987,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25034,7 +25034,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25131,7 +25131,7 @@
         <v>1</v>
       </c>
       <c r="Q476">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R476">
         <v>6</v>
@@ -25184,7 +25184,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25234,7 +25234,7 @@
         <v>1</v>
       </c>
       <c r="Q478">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R478">
         <v>14</v>
@@ -25287,7 +25287,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25334,7 +25334,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25381,7 +25381,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25428,7 +25428,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25478,7 +25478,7 @@
         <v>1</v>
       </c>
       <c r="Q483">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R483">
         <v>6</v>
@@ -25531,7 +25531,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25581,7 +25581,7 @@
         <v>1</v>
       </c>
       <c r="Q485">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R485">
         <v>6</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25681,7 +25681,7 @@
         <v>1</v>
       </c>
       <c r="Q487">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R487">
         <v>4</v>
@@ -25731,7 +25731,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25778,7 +25778,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25825,7 +25825,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25872,7 +25872,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25919,7 +25919,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -25966,7 +25966,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -26016,7 +26016,7 @@
         <v>1</v>
       </c>
       <c r="Q494">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R494">
         <v>9</v>
@@ -26069,7 +26069,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26119,7 +26119,7 @@
         <v>1</v>
       </c>
       <c r="Q496">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R496">
         <v>1</v>
@@ -26169,7 +26169,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26219,7 +26219,7 @@
         <v>1</v>
       </c>
       <c r="Q498">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R498">
         <v>5</v>
@@ -26269,7 +26269,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26322,7 +26322,7 @@
         <v>1</v>
       </c>
       <c r="Q500">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R500">
         <v>0</v>
@@ -26366,10 +26366,10 @@
         <v>1</v>
       </c>
       <c r="P501" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q501">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26410,7 +26410,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
